--- a/dosen.xlsx
+++ b/dosen.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Tubes_MBD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alson\Documents\GitHub\TubesMBD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7104"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="441">
   <si>
     <t>nama_ptk</t>
   </si>
@@ -71,6 +71,1293 @@
 nama_ayah : bebas, max 50 karakter
 nama_ibu : bebas, max 50 karakter 
 kewarganegaraan : INDONESIA 62, tambahin aja random dikit</t>
+  </si>
+  <si>
+    <t>Jimmy Parker</t>
+  </si>
+  <si>
+    <t>Kenneth Allen</t>
+  </si>
+  <si>
+    <t>Brian James</t>
+  </si>
+  <si>
+    <t>Paul Henderson</t>
+  </si>
+  <si>
+    <t>Joe Fisher</t>
+  </si>
+  <si>
+    <t>Steve Turner</t>
+  </si>
+  <si>
+    <t>Jerry Jacobs</t>
+  </si>
+  <si>
+    <t>David Gonzales</t>
+  </si>
+  <si>
+    <t>Peter Tucker</t>
+  </si>
+  <si>
+    <t>Charles Green</t>
+  </si>
+  <si>
+    <t>Brandon Bishop</t>
+  </si>
+  <si>
+    <t>Christopher Bishop</t>
+  </si>
+  <si>
+    <t>Roger Watkins</t>
+  </si>
+  <si>
+    <t>Timothy Morales</t>
+  </si>
+  <si>
+    <t>Gregory Dunn</t>
+  </si>
+  <si>
+    <t>Steven Banks</t>
+  </si>
+  <si>
+    <t>Eric Patterson</t>
+  </si>
+  <si>
+    <t>Aaron Austin</t>
+  </si>
+  <si>
+    <t>Raymond Ray</t>
+  </si>
+  <si>
+    <t>Roy Torres</t>
+  </si>
+  <si>
+    <t>Jason Peters</t>
+  </si>
+  <si>
+    <t>Dennis Bell</t>
+  </si>
+  <si>
+    <t>Clarence Kelley</t>
+  </si>
+  <si>
+    <t>Phillip Montgomery</t>
+  </si>
+  <si>
+    <t>Billy Robinson</t>
+  </si>
+  <si>
+    <t>Antonio Day</t>
+  </si>
+  <si>
+    <t>Michael Hudson</t>
+  </si>
+  <si>
+    <t>Randy Johnson</t>
+  </si>
+  <si>
+    <t>Mark Porter</t>
+  </si>
+  <si>
+    <t>Jack Ward</t>
+  </si>
+  <si>
+    <t>Aaron Thomas</t>
+  </si>
+  <si>
+    <t>Stephen Olson</t>
+  </si>
+  <si>
+    <t>Roy White</t>
+  </si>
+  <si>
+    <t>John Robertson</t>
+  </si>
+  <si>
+    <t>Gary Burton</t>
+  </si>
+  <si>
+    <t>Arthur Coleman</t>
+  </si>
+  <si>
+    <t>Jack Perkins</t>
+  </si>
+  <si>
+    <t>Philip Rogers</t>
+  </si>
+  <si>
+    <t>Steve Hamilton</t>
+  </si>
+  <si>
+    <t>Alan George</t>
+  </si>
+  <si>
+    <t>Charles Romero</t>
+  </si>
+  <si>
+    <t>Todd Mccoy</t>
+  </si>
+  <si>
+    <t>Todd Bailey</t>
+  </si>
+  <si>
+    <t>Sean Gonzalez</t>
+  </si>
+  <si>
+    <t>Gary Castillo</t>
+  </si>
+  <si>
+    <t>Ryan Bennett</t>
+  </si>
+  <si>
+    <t>Johnny Diaz</t>
+  </si>
+  <si>
+    <t>Craig Grant</t>
+  </si>
+  <si>
+    <t>Keith Freeman</t>
+  </si>
+  <si>
+    <t>Alan Rose</t>
+  </si>
+  <si>
+    <t>Andrew Carter</t>
+  </si>
+  <si>
+    <t>Steve Hayes</t>
+  </si>
+  <si>
+    <t>Timothy Nguyen</t>
+  </si>
+  <si>
+    <t>Harry Henderson</t>
+  </si>
+  <si>
+    <t>Joseph Jackson</t>
+  </si>
+  <si>
+    <t>Gary Welch</t>
+  </si>
+  <si>
+    <t>Anthony Garza</t>
+  </si>
+  <si>
+    <t>Nicholas Griffin</t>
+  </si>
+  <si>
+    <t>Charles Berry</t>
+  </si>
+  <si>
+    <t>Bruce Lynch</t>
+  </si>
+  <si>
+    <t>Timothy Grant</t>
+  </si>
+  <si>
+    <t>Gerald Thompson</t>
+  </si>
+  <si>
+    <t>Benjamin Wells</t>
+  </si>
+  <si>
+    <t>Victor Rice</t>
+  </si>
+  <si>
+    <t>Harold Sanchez</t>
+  </si>
+  <si>
+    <t>Brian Ford</t>
+  </si>
+  <si>
+    <t>Michael Johnston</t>
+  </si>
+  <si>
+    <t>Louis Cook</t>
+  </si>
+  <si>
+    <t>David Wallace</t>
+  </si>
+  <si>
+    <t>Fred Garcia</t>
+  </si>
+  <si>
+    <t>Louis Black</t>
+  </si>
+  <si>
+    <t>Jesse Stanley</t>
+  </si>
+  <si>
+    <t>Gary Carr</t>
+  </si>
+  <si>
+    <t>Roger Day</t>
+  </si>
+  <si>
+    <t>Martin Richardson</t>
+  </si>
+  <si>
+    <t>Joshua Parker</t>
+  </si>
+  <si>
+    <t>Brandon George</t>
+  </si>
+  <si>
+    <t>Mark Walker</t>
+  </si>
+  <si>
+    <t>Antonio Roberts</t>
+  </si>
+  <si>
+    <t>Jack Ryan</t>
+  </si>
+  <si>
+    <t>20 Thackeray Point</t>
+  </si>
+  <si>
+    <t>46745 Burrows Street</t>
+  </si>
+  <si>
+    <t>6 Lakeland Trail</t>
+  </si>
+  <si>
+    <t>1 Sunfield Parkway</t>
+  </si>
+  <si>
+    <t>7769 Dryden Crossing</t>
+  </si>
+  <si>
+    <t>314 Sloan Pass</t>
+  </si>
+  <si>
+    <t>3530 Mayfield Street</t>
+  </si>
+  <si>
+    <t>7489 Bunting Trail</t>
+  </si>
+  <si>
+    <t>4 Moland Park</t>
+  </si>
+  <si>
+    <t>68 Gale Alley</t>
+  </si>
+  <si>
+    <t>066 Redwing Trail</t>
+  </si>
+  <si>
+    <t>9137 Sunnyside Avenue</t>
+  </si>
+  <si>
+    <t>20091 Petterle Avenue</t>
+  </si>
+  <si>
+    <t>905 Onsgard Terrace</t>
+  </si>
+  <si>
+    <t>7 Bluestem Way</t>
+  </si>
+  <si>
+    <t>4853 Pepper Wood Court</t>
+  </si>
+  <si>
+    <t>1876 Sheridan Plaza</t>
+  </si>
+  <si>
+    <t>0 Lighthouse Bay Park</t>
+  </si>
+  <si>
+    <t>7 Mayer Center</t>
+  </si>
+  <si>
+    <t>39 Northridge Trail</t>
+  </si>
+  <si>
+    <t>9411 Merchant Street</t>
+  </si>
+  <si>
+    <t>64274 Michigan Pass</t>
+  </si>
+  <si>
+    <t>1534 Moland Drive</t>
+  </si>
+  <si>
+    <t>3 Vidon Trail</t>
+  </si>
+  <si>
+    <t>71503 Lerdahl Junction</t>
+  </si>
+  <si>
+    <t>029 Johnson Lane</t>
+  </si>
+  <si>
+    <t>587 Annamark Terrace</t>
+  </si>
+  <si>
+    <t>6598 Lighthouse Bay Parkway</t>
+  </si>
+  <si>
+    <t>55 Bunting Avenue</t>
+  </si>
+  <si>
+    <t>44 Warner Alley</t>
+  </si>
+  <si>
+    <t>2 Sauthoff Junction</t>
+  </si>
+  <si>
+    <t>2247 Pepper Wood Terrace</t>
+  </si>
+  <si>
+    <t>11785 Brown Park</t>
+  </si>
+  <si>
+    <t>6 Saint Paul Street</t>
+  </si>
+  <si>
+    <t>74 Sommers Drive</t>
+  </si>
+  <si>
+    <t>180 Riverside Center</t>
+  </si>
+  <si>
+    <t>9603 Helena Court</t>
+  </si>
+  <si>
+    <t>53 Roth Way</t>
+  </si>
+  <si>
+    <t>5390 Cody Alley</t>
+  </si>
+  <si>
+    <t>71420 Granby Way</t>
+  </si>
+  <si>
+    <t>5 Monica Hill</t>
+  </si>
+  <si>
+    <t>0 Weeping Birch Park</t>
+  </si>
+  <si>
+    <t>79931 Magdeline Road</t>
+  </si>
+  <si>
+    <t>83877 Oneill Pass</t>
+  </si>
+  <si>
+    <t>171 Rowland Plaza</t>
+  </si>
+  <si>
+    <t>9942 Helena Terrace</t>
+  </si>
+  <si>
+    <t>53 Orin Point</t>
+  </si>
+  <si>
+    <t>9869 Anniversary Drive</t>
+  </si>
+  <si>
+    <t>5053 Chinook Street</t>
+  </si>
+  <si>
+    <t>70277 Bartillon Lane</t>
+  </si>
+  <si>
+    <t>6 Lake View Junction</t>
+  </si>
+  <si>
+    <t>16969 Luster Lane</t>
+  </si>
+  <si>
+    <t>587 Bellgrove Road</t>
+  </si>
+  <si>
+    <t>1703 Hermina Trail</t>
+  </si>
+  <si>
+    <t>2 Acker Park</t>
+  </si>
+  <si>
+    <t>0175 Brickson Park Park</t>
+  </si>
+  <si>
+    <t>163 Glendale Parkway</t>
+  </si>
+  <si>
+    <t>9844 Nancy Way</t>
+  </si>
+  <si>
+    <t>5 Ryan Alley</t>
+  </si>
+  <si>
+    <t>75352 Montana Lane</t>
+  </si>
+  <si>
+    <t>084 Rieder Center</t>
+  </si>
+  <si>
+    <t>5 Granby Hill</t>
+  </si>
+  <si>
+    <t>02600 Oak Valley Pass</t>
+  </si>
+  <si>
+    <t>92 Union Park</t>
+  </si>
+  <si>
+    <t>79 Holy Cross Street</t>
+  </si>
+  <si>
+    <t>0933 Gateway Drive</t>
+  </si>
+  <si>
+    <t>61 Lighthouse Bay Center</t>
+  </si>
+  <si>
+    <t>4403 Gina Lane</t>
+  </si>
+  <si>
+    <t>90 Ridgeway Parkway</t>
+  </si>
+  <si>
+    <t>43137 Evergreen Way</t>
+  </si>
+  <si>
+    <t>300 Center Trail</t>
+  </si>
+  <si>
+    <t>04 Holy Cross Drive</t>
+  </si>
+  <si>
+    <t>3 Green Ridge Point</t>
+  </si>
+  <si>
+    <t>16022 David Street</t>
+  </si>
+  <si>
+    <t>680 Pankratz Way</t>
+  </si>
+  <si>
+    <t>62185 Trailsway Crossing</t>
+  </si>
+  <si>
+    <t>45 Nova Street</t>
+  </si>
+  <si>
+    <t>0356 Sauthoff Parkway</t>
+  </si>
+  <si>
+    <t>3 Rowland Junction</t>
+  </si>
+  <si>
+    <t>074 Welch Circle</t>
+  </si>
+  <si>
+    <t>jparker0@nsw.gov.au</t>
+  </si>
+  <si>
+    <t>kallen1@homestead.com</t>
+  </si>
+  <si>
+    <t>bjames2@opensource.org</t>
+  </si>
+  <si>
+    <t>phenderson3@deviantart.com</t>
+  </si>
+  <si>
+    <t>jfisher4@1und1.de</t>
+  </si>
+  <si>
+    <t>sturner5@4shared.com</t>
+  </si>
+  <si>
+    <t>jjacobs6@cdbaby.com</t>
+  </si>
+  <si>
+    <t>dgonzales7@topsy.com</t>
+  </si>
+  <si>
+    <t>ptucker8@liveinternet.ru</t>
+  </si>
+  <si>
+    <t>cgreen9@ihg.com</t>
+  </si>
+  <si>
+    <t>bbishopa@de.vu</t>
+  </si>
+  <si>
+    <t>cbishopb@spiegel.de</t>
+  </si>
+  <si>
+    <t>rwatkinsc@360.cn</t>
+  </si>
+  <si>
+    <t>tmoralesd@mapquest.com</t>
+  </si>
+  <si>
+    <t>gdunne@liveinternet.ru</t>
+  </si>
+  <si>
+    <t>sbanksf@g.co</t>
+  </si>
+  <si>
+    <t>epattersong@salon.com</t>
+  </si>
+  <si>
+    <t>aaustinh@comcast.net</t>
+  </si>
+  <si>
+    <t>rrayi@geocities.jp</t>
+  </si>
+  <si>
+    <t>rtorresj@hexun.com</t>
+  </si>
+  <si>
+    <t>jpetersk@smh.com.au</t>
+  </si>
+  <si>
+    <t>dbelll@usatoday.com</t>
+  </si>
+  <si>
+    <t>ckelleym@bandcamp.com</t>
+  </si>
+  <si>
+    <t>pmontgomeryn@over-blog.com</t>
+  </si>
+  <si>
+    <t>brobinsono@shareasale.com</t>
+  </si>
+  <si>
+    <t>adayp@washingtonpost.com</t>
+  </si>
+  <si>
+    <t>mhudsonq@mysql.com</t>
+  </si>
+  <si>
+    <t>rjohnsonr@themeforest.net</t>
+  </si>
+  <si>
+    <t>mporters@phpbb.com</t>
+  </si>
+  <si>
+    <t>jwardt@com.com</t>
+  </si>
+  <si>
+    <t>athomasu@chicagotribune.com</t>
+  </si>
+  <si>
+    <t>solsonv@fc2.com</t>
+  </si>
+  <si>
+    <t>rwhitew@wunderground.com</t>
+  </si>
+  <si>
+    <t>jrobertsonx@gmpg.org</t>
+  </si>
+  <si>
+    <t>gburtony@rediff.com</t>
+  </si>
+  <si>
+    <t>acolemanz@google.de</t>
+  </si>
+  <si>
+    <t>jperkins10@sina.com.cn</t>
+  </si>
+  <si>
+    <t>progers11@histats.com</t>
+  </si>
+  <si>
+    <t>shamilton12@bizjournals.com</t>
+  </si>
+  <si>
+    <t>ageorge13@sohu.com</t>
+  </si>
+  <si>
+    <t>cromero14@vimeo.com</t>
+  </si>
+  <si>
+    <t>tmccoy15@51.la</t>
+  </si>
+  <si>
+    <t>tbailey16@dropbox.com</t>
+  </si>
+  <si>
+    <t>sgonzalez17@youtube.com</t>
+  </si>
+  <si>
+    <t>gcastillo18@addthis.com</t>
+  </si>
+  <si>
+    <t>rbennett19@umich.edu</t>
+  </si>
+  <si>
+    <t>jdiaz1a@sciencedaily.com</t>
+  </si>
+  <si>
+    <t>cgrant1b@digg.com</t>
+  </si>
+  <si>
+    <t>kfreeman1c@google.com.br</t>
+  </si>
+  <si>
+    <t>arose1d@hatena.ne.jp</t>
+  </si>
+  <si>
+    <t>acarter1e@census.gov</t>
+  </si>
+  <si>
+    <t>shayes1f@salon.com</t>
+  </si>
+  <si>
+    <t>tnguyen1g@fema.gov</t>
+  </si>
+  <si>
+    <t>hhenderson1h@cnet.com</t>
+  </si>
+  <si>
+    <t>jjackson1i@dot.gov</t>
+  </si>
+  <si>
+    <t>gwelch1j@cdbaby.com</t>
+  </si>
+  <si>
+    <t>agarza1k@topsy.com</t>
+  </si>
+  <si>
+    <t>ngriffin1l@hhs.gov</t>
+  </si>
+  <si>
+    <t>cberry1m@washington.edu</t>
+  </si>
+  <si>
+    <t>blynch1n@theglobeandmail.com</t>
+  </si>
+  <si>
+    <t>tgrant1o@jalbum.net</t>
+  </si>
+  <si>
+    <t>gthompson1p@arstechnica.com</t>
+  </si>
+  <si>
+    <t>bwells1q@123-reg.co.uk</t>
+  </si>
+  <si>
+    <t>vrice1r@illinois.edu</t>
+  </si>
+  <si>
+    <t>hsanchez1s@youtube.com</t>
+  </si>
+  <si>
+    <t>bford1t@marketwatch.com</t>
+  </si>
+  <si>
+    <t>mjohnston1u@spiegel.de</t>
+  </si>
+  <si>
+    <t>lcook1v@fc2.com</t>
+  </si>
+  <si>
+    <t>dwallace1w@hubpages.com</t>
+  </si>
+  <si>
+    <t>fgarcia1x@fda.gov</t>
+  </si>
+  <si>
+    <t>lblack1y@example.com</t>
+  </si>
+  <si>
+    <t>jstanley1z@desdev.cn</t>
+  </si>
+  <si>
+    <t>gcarr20@huffingtonpost.com</t>
+  </si>
+  <si>
+    <t>rday21@fema.gov</t>
+  </si>
+  <si>
+    <t>mrichardson22@webs.com</t>
+  </si>
+  <si>
+    <t>jparker23@arizona.edu</t>
+  </si>
+  <si>
+    <t>bgeorge24@list-manage.com</t>
+  </si>
+  <si>
+    <t>mwalker25@miitbeian.gov.cn</t>
+  </si>
+  <si>
+    <t>aroberts26@blog.com</t>
+  </si>
+  <si>
+    <t>jryan27@smh.com.au</t>
+  </si>
+  <si>
+    <t>Jimmy</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Kenneth</t>
+  </si>
+  <si>
+    <t>Nicole</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Tammy</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Shirley</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Denise</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Dorothy</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>Lillian</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Judith</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Bonnie</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
+    <t>Sharon</t>
+  </si>
+  <si>
+    <t>Gregory</t>
+  </si>
+  <si>
+    <t>Heather</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Aaron</t>
+  </si>
+  <si>
+    <t>Norma</t>
+  </si>
+  <si>
+    <t>Raymond</t>
+  </si>
+  <si>
+    <t>Kathy</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Clarence</t>
+  </si>
+  <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <t>Phillip</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Debra</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>Kathleen</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Louise</t>
+  </si>
+  <si>
+    <t>Philip</t>
+  </si>
+  <si>
+    <t>Doris</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Johnny</t>
+  </si>
+  <si>
+    <t>Helen</t>
+  </si>
+  <si>
+    <t>Craig</t>
+  </si>
+  <si>
+    <t>Phyllis</t>
+  </si>
+  <si>
+    <t>Keith</t>
+  </si>
+  <si>
+    <t>Diane</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Joan</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Irene</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>Judy</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>Beverly</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>Betty</t>
+  </si>
+  <si>
+    <t>Deborah</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Pamela</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Joshua</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Singaporean</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>174094882455171152</t>
+  </si>
+  <si>
+    <t>761423221685761892</t>
+  </si>
+  <si>
+    <t>795431233411387427</t>
+  </si>
+  <si>
+    <t>793198650286024865</t>
+  </si>
+  <si>
+    <t>090061389344606618</t>
+  </si>
+  <si>
+    <t>496378829135984076</t>
+  </si>
+  <si>
+    <t>361542097372601657</t>
+  </si>
+  <si>
+    <t>541200146071777733</t>
+  </si>
+  <si>
+    <t>599818266038012509</t>
+  </si>
+  <si>
+    <t>478351201640618984</t>
+  </si>
+  <si>
+    <t>143988087783837107</t>
+  </si>
+  <si>
+    <t>349651099683484992</t>
+  </si>
+  <si>
+    <t>553337438088068198</t>
+  </si>
+  <si>
+    <t>972282890781586124</t>
+  </si>
+  <si>
+    <t>258626539246182119</t>
+  </si>
+  <si>
+    <t>762952003918195325</t>
+  </si>
+  <si>
+    <t>258677229419698255</t>
+  </si>
+  <si>
+    <t>491250839396799769</t>
+  </si>
+  <si>
+    <t>357665825441616335</t>
+  </si>
+  <si>
+    <t>532825361862146291</t>
+  </si>
+  <si>
+    <t>503649293440596342</t>
+  </si>
+  <si>
+    <t>887581257444442930</t>
+  </si>
+  <si>
+    <t>778730382520372975</t>
+  </si>
+  <si>
+    <t>343211325351222640</t>
+  </si>
+  <si>
+    <t>703400531067500454</t>
+  </si>
+  <si>
+    <t>956482168314849207</t>
+  </si>
+  <si>
+    <t>060705673849265774</t>
+  </si>
+  <si>
+    <t>579830223671554026</t>
+  </si>
+  <si>
+    <t>061117300483012903</t>
+  </si>
+  <si>
+    <t>885770893074783710</t>
+  </si>
+  <si>
+    <t>083450145620356667</t>
+  </si>
+  <si>
+    <t>677191627276513995</t>
+  </si>
+  <si>
+    <t>926532444279237315</t>
+  </si>
+  <si>
+    <t>785832411595106453</t>
+  </si>
+  <si>
+    <t>089134746365281031</t>
+  </si>
+  <si>
+    <t>552217482363035280</t>
+  </si>
+  <si>
+    <t>722591085079053410</t>
+  </si>
+  <si>
+    <t>485925413958279617</t>
+  </si>
+  <si>
+    <t>719034175332412908</t>
+  </si>
+  <si>
+    <t>745680774313630190</t>
+  </si>
+  <si>
+    <t>429314820559328748</t>
+  </si>
+  <si>
+    <t>143552689295945058</t>
+  </si>
+  <si>
+    <t>801322270313370955</t>
+  </si>
+  <si>
+    <t>837837939182801848</t>
+  </si>
+  <si>
+    <t>609300876356583948</t>
+  </si>
+  <si>
+    <t>397645861551964542</t>
+  </si>
+  <si>
+    <t>532682663945625356</t>
+  </si>
+  <si>
+    <t>614462682551015176</t>
+  </si>
+  <si>
+    <t>002433628234343684</t>
+  </si>
+  <si>
+    <t>739800880514363921</t>
+  </si>
+  <si>
+    <t>982340231989891351</t>
+  </si>
+  <si>
+    <t>425389287014819359</t>
+  </si>
+  <si>
+    <t>798014755509282450</t>
+  </si>
+  <si>
+    <t>440511590838726938</t>
+  </si>
+  <si>
+    <t>103384801541373585</t>
+  </si>
+  <si>
+    <t>690893606978941566</t>
+  </si>
+  <si>
+    <t>666714061214952341</t>
+  </si>
+  <si>
+    <t>523168827712604946</t>
+  </si>
+  <si>
+    <t>036245881214982452</t>
+  </si>
+  <si>
+    <t>998386986623826275</t>
+  </si>
+  <si>
+    <t>782780208928205527</t>
+  </si>
+  <si>
+    <t>678781609589000725</t>
+  </si>
+  <si>
+    <t>521486468983551558</t>
+  </si>
+  <si>
+    <t>405472149903035076</t>
+  </si>
+  <si>
+    <t>783644195574734088</t>
+  </si>
+  <si>
+    <t>152324666290493119</t>
+  </si>
+  <si>
+    <t>955560594634905391</t>
+  </si>
+  <si>
+    <t>288186024902215444</t>
+  </si>
+  <si>
+    <t>250421277955403412</t>
+  </si>
+  <si>
+    <t>298227858394469856</t>
+  </si>
+  <si>
+    <t>607272647132163832</t>
+  </si>
+  <si>
+    <t>860126054679347881</t>
+  </si>
+  <si>
+    <t>638761723785858733</t>
+  </si>
+  <si>
+    <t>108109249157334220</t>
+  </si>
+  <si>
+    <t>127702410373959720</t>
+  </si>
+  <si>
+    <t>286708183036202841</t>
+  </si>
+  <si>
+    <t>837581704881367895</t>
+  </si>
+  <si>
+    <t>556630088230650972</t>
+  </si>
+  <si>
+    <t>282944827258473951</t>
+  </si>
+  <si>
+    <t>902831431040790814</t>
   </si>
 </sst>
 </file>
@@ -186,8 +1473,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -308,6 +1596,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -343,6 +1648,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -495,25 +1817,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:Q601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D2" sqref="D2:D81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.36328125" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.21875" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -547,487 +1871,5489 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>20019001</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B2" s="1">
+        <v>1740948824</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" t="s">
+        <v>253</v>
+      </c>
+      <c r="K2" t="s">
+        <v>357</v>
+      </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20019002</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B3" s="1">
+        <v>5517115276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>254</v>
+      </c>
+      <c r="J3" t="s">
+        <v>255</v>
+      </c>
+      <c r="K3" t="s">
+        <v>358</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20019003</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B4" s="1">
+        <v>1423221685</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>256</v>
+      </c>
+      <c r="J4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K4" t="s">
+        <v>358</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20019004</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B5" s="1">
+        <v>7618927954</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>258</v>
+      </c>
+      <c r="J5" t="s">
+        <v>259</v>
+      </c>
+      <c r="K5" t="s">
+        <v>358</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20019005</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B6" s="1">
+        <v>3123341138</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>260</v>
+      </c>
+      <c r="J6" t="s">
+        <v>261</v>
+      </c>
+      <c r="K6" t="s">
+        <v>357</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20019006</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B7" s="1">
+        <v>7427793198</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>262</v>
+      </c>
+      <c r="J7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K7" t="s">
+        <v>359</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="7"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20019007</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B8" s="1">
+        <v>6502860248</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>264</v>
+      </c>
+      <c r="J8" t="s">
+        <v>265</v>
+      </c>
+      <c r="K8" t="s">
+        <v>357</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="7"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20019008</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B9" s="1">
+        <v>6509006138</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>266</v>
+      </c>
+      <c r="J9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K9" t="s">
+        <v>357</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="7"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20019009</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B10" s="1">
+        <v>9344606618</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>268</v>
+      </c>
+      <c r="J10" t="s">
+        <v>263</v>
+      </c>
+      <c r="K10" t="s">
+        <v>358</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>20019010</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B11" s="1">
+        <v>4963788291</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>181</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>269</v>
+      </c>
+      <c r="J11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K11" t="s">
+        <v>360</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20019011</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B12" s="1">
+        <v>3598407636</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>271</v>
+      </c>
+      <c r="J12" t="s">
+        <v>272</v>
+      </c>
+      <c r="K12" t="s">
+        <v>359</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20019012</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B13" s="1">
+        <v>1542097372</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>273</v>
+      </c>
+      <c r="J13" t="s">
+        <v>272</v>
+      </c>
+      <c r="K13" t="s">
+        <v>358</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="7"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20019013</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B14" s="1">
+        <v>6016575412</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
+        <v>184</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>274</v>
+      </c>
+      <c r="J14" t="s">
+        <v>275</v>
+      </c>
+      <c r="K14" t="s">
+        <v>359</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>20019014</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B15" s="1">
+        <v>14607177</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>276</v>
+      </c>
+      <c r="J15" t="s">
+        <v>277</v>
+      </c>
+      <c r="K15" t="s">
+        <v>358</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="7"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>20019015</v>
       </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
+        <v>7733599818</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" t="s">
+        <v>186</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>278</v>
+      </c>
+      <c r="J16" t="s">
+        <v>279</v>
+      </c>
+      <c r="K16" t="s">
+        <v>357</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>20038016</v>
       </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="9"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B17" s="1">
+        <v>2660380125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>280</v>
+      </c>
+      <c r="J17" t="s">
+        <v>277</v>
+      </c>
+      <c r="K17" t="s">
+        <v>359</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>20038017</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B18" s="1">
+        <v>947835120</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>281</v>
+      </c>
+      <c r="J18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K18" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>20038018</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B19" s="1">
+        <v>1640618984</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" t="s">
+        <v>189</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>282</v>
+      </c>
+      <c r="J19" t="s">
+        <v>283</v>
+      </c>
+      <c r="K19" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20038019</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B20" s="1">
+        <v>1439880877</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" t="s">
+        <v>190</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>284</v>
+      </c>
+      <c r="J20" t="s">
+        <v>285</v>
+      </c>
+      <c r="K20" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20038020</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B21" s="1">
+        <v>8383710734</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" t="s">
+        <v>191</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>286</v>
+      </c>
+      <c r="J21" t="s">
+        <v>255</v>
+      </c>
+      <c r="K21" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20038021</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B22" s="1">
+        <v>9651099683</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" t="s">
+        <v>192</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>287</v>
+      </c>
+      <c r="J22" t="s">
+        <v>288</v>
+      </c>
+      <c r="K22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>20038022</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B23" s="1">
+        <v>4849925533</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" t="s">
+        <v>193</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>289</v>
+      </c>
+      <c r="J23" t="s">
+        <v>290</v>
+      </c>
+      <c r="K23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>20038023</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B24" s="1">
+        <v>3743808806</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" t="s">
+        <v>194</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>291</v>
+      </c>
+      <c r="J24" t="s">
+        <v>292</v>
+      </c>
+      <c r="K24" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>20038024</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B25" s="1">
+        <v>8198972282</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>293</v>
+      </c>
+      <c r="J25" t="s">
+        <v>294</v>
+      </c>
+      <c r="K25" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20058025</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B26" s="1">
+        <v>8907815861</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G26" t="s">
+        <v>196</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>295</v>
+      </c>
+      <c r="J26" t="s">
+        <v>296</v>
+      </c>
+      <c r="K26" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>20058026</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B27" s="1">
+        <v>2425862653</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>297</v>
+      </c>
+      <c r="J27" t="s">
+        <v>298</v>
+      </c>
+      <c r="K27" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>20058027</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B28" s="1">
+        <v>9246182119</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" t="s">
+        <v>198</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>299</v>
+      </c>
+      <c r="J28" t="s">
+        <v>300</v>
+      </c>
+      <c r="K28" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>20058028</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B29" s="1">
+        <v>7629520039</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>301</v>
+      </c>
+      <c r="J29" t="s">
+        <v>302</v>
+      </c>
+      <c r="K29" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>20058029</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B30" s="1">
+        <v>1819532525</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" t="s">
+        <v>200</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>303</v>
+      </c>
+      <c r="J30" t="s">
+        <v>304</v>
+      </c>
+      <c r="K30" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>20058030</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B31" s="1">
+        <v>8677229419</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" t="s">
+        <v>201</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>305</v>
+      </c>
+      <c r="J31" t="s">
+        <v>306</v>
+      </c>
+      <c r="K31" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>20058031</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32" s="1">
+        <v>6982554912</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" t="s">
+        <v>202</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>282</v>
+      </c>
+      <c r="J32" t="s">
+        <v>307</v>
+      </c>
+      <c r="K32" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>20058032</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33" s="1">
+        <v>5083939679</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>123</v>
+      </c>
+      <c r="G33" t="s">
+        <v>203</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>308</v>
+      </c>
+      <c r="J33" t="s">
+        <v>309</v>
+      </c>
+      <c r="K33" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>20058033</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B34" s="1">
+        <v>9769357665</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" t="s">
+        <v>204</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>286</v>
+      </c>
+      <c r="J34" t="s">
+        <v>259</v>
+      </c>
+      <c r="K34" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>20058034</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B35" s="1">
+        <v>8254416163</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" t="s">
+        <v>205</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>310</v>
+      </c>
+      <c r="J35" t="s">
+        <v>309</v>
+      </c>
+      <c r="K35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>20058035</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B36" s="1">
+        <v>3553282536</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36" t="s">
+        <v>206</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>311</v>
+      </c>
+      <c r="J36" t="s">
+        <v>312</v>
+      </c>
+      <c r="K36" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>20058036</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37" s="1">
+        <v>1862146291</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" t="s">
+        <v>207</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>313</v>
+      </c>
+      <c r="J37" t="s">
+        <v>314</v>
+      </c>
+      <c r="K37" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>20058037</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B38" s="1">
+        <v>5036492934</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>128</v>
+      </c>
+      <c r="G38" t="s">
+        <v>208</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>305</v>
+      </c>
+      <c r="J38" t="s">
+        <v>298</v>
+      </c>
+      <c r="K38" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>20074038</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B39" s="1">
+        <v>4059634288</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" t="s">
+        <v>209</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>315</v>
+      </c>
+      <c r="J39" t="s">
+        <v>316</v>
+      </c>
+      <c r="K39" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>20074039</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B40" s="1">
+        <v>7581257444</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40" t="s">
+        <v>210</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>262</v>
+      </c>
+      <c r="J40" t="s">
+        <v>263</v>
+      </c>
+      <c r="K40" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>20074040</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B41" s="1">
+        <v>4429307787</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>131</v>
+      </c>
+      <c r="G41" t="s">
+        <v>211</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>317</v>
+      </c>
+      <c r="J41" t="s">
+        <v>318</v>
+      </c>
+      <c r="K41" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>20074041</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B42" s="1">
+        <v>3038252037</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" t="s">
+        <v>212</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>269</v>
+      </c>
+      <c r="J42" t="s">
+        <v>296</v>
+      </c>
+      <c r="K42" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>20074042</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B43" s="1">
+        <v>2975343211</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" t="s">
+        <v>213</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>319</v>
+      </c>
+      <c r="J43" t="s">
+        <v>320</v>
+      </c>
+      <c r="K43" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>20074043</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B44" s="1">
+        <v>3253512226</v>
+      </c>
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>134</v>
+      </c>
+      <c r="G44" t="s">
+        <v>214</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>319</v>
+      </c>
+      <c r="J44" t="s">
+        <v>279</v>
+      </c>
+      <c r="K44" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>20074044</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B45" s="1">
+        <v>4070340053</v>
+      </c>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>135</v>
+      </c>
+      <c r="G45" t="s">
+        <v>215</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>321</v>
+      </c>
+      <c r="J45" t="s">
+        <v>322</v>
+      </c>
+      <c r="K45" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>20074045</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B46" s="1">
+        <v>1067500454</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" t="s">
+        <v>216</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>311</v>
+      </c>
+      <c r="J46" t="s">
+        <v>323</v>
+      </c>
+      <c r="K46" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>20074046</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B47" s="1">
+        <v>9564821683</v>
+      </c>
+      <c r="C47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>137</v>
+      </c>
+      <c r="G47" t="s">
+        <v>217</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>324</v>
+      </c>
+      <c r="J47" t="s">
+        <v>325</v>
+      </c>
+      <c r="K47" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>20074047</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48" s="1">
+        <v>1484920706</v>
+      </c>
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>138</v>
+      </c>
+      <c r="G48" t="s">
+        <v>218</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>326</v>
+      </c>
+      <c r="J48" t="s">
+        <v>327</v>
+      </c>
+      <c r="K48" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>20074048</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49" s="1">
+        <v>705673849</v>
+      </c>
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>139</v>
+      </c>
+      <c r="G49" t="s">
+        <v>219</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>328</v>
+      </c>
+      <c r="J49" t="s">
+        <v>329</v>
+      </c>
+      <c r="K49" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>20074049</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B50" s="1">
+        <v>2657745798</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>140</v>
+      </c>
+      <c r="G50" t="s">
+        <v>220</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>330</v>
+      </c>
+      <c r="J50" t="s">
+        <v>265</v>
+      </c>
+      <c r="K50" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>20074050</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B51" s="1">
+        <v>3022367155</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>141</v>
+      </c>
+      <c r="G51" t="s">
+        <v>221</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>317</v>
+      </c>
+      <c r="J51" t="s">
+        <v>331</v>
+      </c>
+      <c r="K51" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>20074051</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B52" s="1">
+        <v>4026061117</v>
+      </c>
+      <c r="C52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>142</v>
+      </c>
+      <c r="G52" t="s">
+        <v>222</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>332</v>
+      </c>
+      <c r="J52" t="s">
+        <v>323</v>
+      </c>
+      <c r="K52" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>20082052</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B53" s="1">
+        <v>3004830129</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>143</v>
+      </c>
+      <c r="G53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>262</v>
+      </c>
+      <c r="J53" t="s">
+        <v>333</v>
+      </c>
+      <c r="K53" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>20082053</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B54" s="1">
+        <v>388577089</v>
+      </c>
+      <c r="C54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54" t="s">
+        <v>224</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>276</v>
+      </c>
+      <c r="J54" t="s">
+        <v>300</v>
+      </c>
+      <c r="K54" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>20082054</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B55" s="1">
+        <v>3074783710</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55" t="s">
+        <v>225</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>334</v>
+      </c>
+      <c r="J55" t="s">
+        <v>335</v>
+      </c>
+      <c r="K55" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>20082055</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B56" s="1">
+        <v>834501456</v>
+      </c>
+      <c r="C56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>146</v>
+      </c>
+      <c r="G56" t="s">
+        <v>226</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>336</v>
+      </c>
+      <c r="J56" t="s">
+        <v>279</v>
+      </c>
+      <c r="K56" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>20082056</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B57" s="1">
+        <v>2035666767</v>
+      </c>
+      <c r="C57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>147</v>
+      </c>
+      <c r="G57" t="s">
+        <v>227</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>311</v>
+      </c>
+      <c r="J57" t="s">
+        <v>337</v>
+      </c>
+      <c r="K57" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>20082057</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B58" s="1">
+        <v>7191627276</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>148</v>
+      </c>
+      <c r="G58" t="s">
+        <v>228</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>338</v>
+      </c>
+      <c r="J58" t="s">
+        <v>304</v>
+      </c>
+      <c r="K58" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>20082058</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B59" s="1">
+        <v>5139959265</v>
+      </c>
+      <c r="C59" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>149</v>
+      </c>
+      <c r="G59" t="s">
+        <v>229</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>339</v>
+      </c>
+      <c r="J59" t="s">
+        <v>340</v>
+      </c>
+      <c r="K59" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>20082059</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B60" s="1">
+        <v>3244427923</v>
+      </c>
+      <c r="C60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>150</v>
+      </c>
+      <c r="G60" t="s">
+        <v>230</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>269</v>
+      </c>
+      <c r="J60" t="s">
+        <v>323</v>
+      </c>
+      <c r="K60" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>20082060</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B61" s="1">
+        <v>7315785832</v>
+      </c>
+      <c r="C61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>151</v>
+      </c>
+      <c r="G61" t="s">
+        <v>231</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>341</v>
+      </c>
+      <c r="J61" t="s">
+        <v>342</v>
+      </c>
+      <c r="K61" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>20082061</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B62" s="1">
+        <v>4115951064</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>152</v>
+      </c>
+      <c r="G62" t="s">
+        <v>232</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>276</v>
+      </c>
+      <c r="J62" t="s">
+        <v>306</v>
+      </c>
+      <c r="K62" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>20082062</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B63" s="1">
+        <v>5308913474</v>
+      </c>
+      <c r="C63" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>153</v>
+      </c>
+      <c r="G63" t="s">
+        <v>233</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>343</v>
+      </c>
+      <c r="J63" t="s">
+        <v>344</v>
+      </c>
+      <c r="K63" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>20082063</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B64" s="1">
+        <v>6365281031</v>
+      </c>
+      <c r="C64" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>154</v>
+      </c>
+      <c r="G64" t="s">
+        <v>234</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>345</v>
+      </c>
+      <c r="J64" t="s">
+        <v>292</v>
+      </c>
+      <c r="K64" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>20119064</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B65" s="1">
+        <v>5522174823</v>
+      </c>
+      <c r="C65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>155</v>
+      </c>
+      <c r="G65" t="s">
+        <v>235</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>346</v>
+      </c>
+      <c r="J65" t="s">
+        <v>279</v>
+      </c>
+      <c r="K65" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>20119065</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B66" s="1">
+        <v>6303528072</v>
+      </c>
+      <c r="C66" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>156</v>
+      </c>
+      <c r="G66" t="s">
+        <v>236</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>347</v>
+      </c>
+      <c r="J66" t="s">
+        <v>348</v>
+      </c>
+      <c r="K66" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>20119066</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B67" s="1">
+        <v>2591085079</v>
+      </c>
+      <c r="C67" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>157</v>
+      </c>
+      <c r="G67" t="s">
+        <v>237</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>256</v>
+      </c>
+      <c r="J67" t="s">
+        <v>292</v>
+      </c>
+      <c r="K67" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>20119067</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B68" s="1">
+        <v>534104859</v>
+      </c>
+      <c r="C68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>158</v>
+      </c>
+      <c r="G68" t="s">
+        <v>238</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>299</v>
+      </c>
+      <c r="J68" t="s">
+        <v>349</v>
+      </c>
+      <c r="K68" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>20119068</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B69" s="1">
+        <v>2541395827</v>
+      </c>
+      <c r="C69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>159</v>
+      </c>
+      <c r="G69" t="s">
+        <v>239</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>350</v>
+      </c>
+      <c r="J69" t="s">
+        <v>298</v>
+      </c>
+      <c r="K69" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>20119069</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B70" s="1">
+        <v>9617719034</v>
+      </c>
+      <c r="C70" t="s">
+        <v>80</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>160</v>
+      </c>
+      <c r="G70" t="s">
+        <v>240</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>266</v>
+      </c>
+      <c r="J70" t="s">
+        <v>296</v>
+      </c>
+      <c r="K70" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>20119070</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B71" s="1">
+        <v>1753324129</v>
+      </c>
+      <c r="C71" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>161</v>
+      </c>
+      <c r="G71" t="s">
+        <v>241</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>351</v>
+      </c>
+      <c r="J71" t="s">
+        <v>279</v>
+      </c>
+      <c r="K71" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>20119071</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B72" s="1">
+        <v>874568077</v>
+      </c>
+      <c r="C72" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>162</v>
+      </c>
+      <c r="G72" t="s">
+        <v>242</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>350</v>
+      </c>
+      <c r="J72" t="s">
+        <v>329</v>
+      </c>
+      <c r="K72" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>20119072</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B73" s="1">
+        <v>4313630190</v>
+      </c>
+      <c r="C73" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>163</v>
+      </c>
+      <c r="G73" t="s">
+        <v>243</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>352</v>
+      </c>
+      <c r="J73" t="s">
+        <v>270</v>
+      </c>
+      <c r="K73" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>20158073</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B74" s="1">
+        <v>4293148205</v>
+      </c>
+      <c r="C74" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>164</v>
+      </c>
+      <c r="G74" t="s">
+        <v>244</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>311</v>
+      </c>
+      <c r="J74" t="s">
+        <v>263</v>
+      </c>
+      <c r="K74" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>20158074</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B75" s="1">
+        <v>5932874814</v>
+      </c>
+      <c r="C75" t="s">
+        <v>85</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="s">
+        <v>165</v>
+      </c>
+      <c r="G75" t="s">
+        <v>245</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>274</v>
+      </c>
+      <c r="J75" t="s">
+        <v>353</v>
+      </c>
+      <c r="K75" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>20158075</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B76" s="1">
+        <v>3552689295</v>
+      </c>
+      <c r="C76" t="s">
+        <v>86</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>166</v>
+      </c>
+      <c r="G76" t="s">
+        <v>246</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
+        <v>354</v>
+      </c>
+      <c r="J76" t="s">
+        <v>329</v>
+      </c>
+      <c r="K76" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>20158076</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B77" s="1">
+        <v>9450588013</v>
+      </c>
+      <c r="C77" t="s">
+        <v>87</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>167</v>
+      </c>
+      <c r="G77" t="s">
+        <v>247</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>355</v>
+      </c>
+      <c r="J77" t="s">
+        <v>257</v>
+      </c>
+      <c r="K77" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>20158077</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B78" s="1">
+        <v>2227031337</v>
+      </c>
+      <c r="C78" t="s">
+        <v>88</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="s">
+        <v>168</v>
+      </c>
+      <c r="G78" t="s">
+        <v>248</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>271</v>
+      </c>
+      <c r="J78" t="s">
+        <v>322</v>
+      </c>
+      <c r="K78" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>20158078</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B79" s="1">
+        <v>955837837</v>
+      </c>
+      <c r="C79" t="s">
+        <v>89</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>169</v>
+      </c>
+      <c r="G79" t="s">
+        <v>249</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79" t="s">
+        <v>303</v>
+      </c>
+      <c r="J79" t="s">
+        <v>342</v>
+      </c>
+      <c r="K79" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>20158079</v>
+      </c>
+      <c r="B80" s="1">
+        <v>9391828018</v>
+      </c>
+      <c r="C80" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>170</v>
+      </c>
+      <c r="G80" t="s">
+        <v>250</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>297</v>
+      </c>
+      <c r="J80" t="s">
+        <v>356</v>
+      </c>
+      <c r="K80" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B81" s="1">
+        <v>4860930087</v>
+      </c>
+      <c r="C81" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="s">
+        <v>171</v>
+      </c>
+      <c r="G81" t="s">
+        <v>251</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
+        <v>305</v>
+      </c>
+      <c r="J81" t="s">
+        <v>329</v>
+      </c>
+      <c r="K81" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B82" s="1">
+        <v>6356583948</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B83" s="1">
+        <v>3976458615</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B84" s="1">
+        <v>5196454253</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B85" s="1">
+        <v>2682663945</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B86" s="1">
+        <v>6253566144</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B87" s="1">
+        <v>6268255101</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B88" s="1">
+        <v>5176002433</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B89" s="1">
+        <v>6282343436</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B90" s="1">
+        <v>8473980088</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B91" s="1">
+        <v>514363921</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B92" s="1">
+        <v>9823402319</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B93" s="1">
+        <v>8989135142</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B94" s="1">
+        <v>5389287014</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B95" s="1">
+        <v>8193597980</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B96" s="1">
+        <v>1475550928</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="1">
+        <v>2450440511</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="1">
+        <v>5908387269</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="1">
+        <v>3810338480</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="1">
+        <v>1541373585</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="1">
+        <v>6908936069</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="1">
+        <v>7894156666</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="1">
+        <v>6714061214</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="1">
+        <v>9523415231</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="1">
+        <v>6882771260</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="1">
+        <v>4946036245</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="1">
+        <v>8812149824</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="1">
+        <v>5299838698</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="1">
+        <v>6623826275</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="1">
+        <v>7827802089</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="1">
+        <v>2820552767</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="1">
+        <v>8781609589</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="1">
+        <v>7255214</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="1">
+        <v>8646898355</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="1">
+        <v>1558405472</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="1">
+        <v>1499030350</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="1">
+        <v>7678364419</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="1">
+        <v>5574734088</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="1">
+        <v>1523246662</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="1">
+        <v>9049311995</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="1">
+        <v>5560594634</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="1">
+        <v>9053912881</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="1">
+        <v>8602490221</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="1">
+        <v>5444250421</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="1">
+        <v>2779554034</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="1">
+        <v>1229822785</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="1">
+        <v>8394469856</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="1">
+        <v>6072726471</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="1">
+        <v>3216383286</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="1">
+        <v>126054679</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="1">
+        <v>3478816387</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="1">
+        <v>6172378585</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="1">
+        <v>8733108109</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="1">
+        <v>2491573342</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="1">
+        <v>2012770241</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="1">
+        <v>373959720</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="1">
+        <v>2867081830</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="1">
+        <v>3620284183</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" s="1">
+        <v>7581704881</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" s="1">
+        <v>3678955566</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="1">
+        <v>3008823065</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" s="1">
+        <v>972282944</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="1">
+        <v>8272584739</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" s="1">
+        <v>5190283143</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="1">
+        <v>1040790814</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="1">
+        <v>795382321</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="1">
+        <v>407590512</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="1">
+        <v>989173307</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="1">
+        <v>6602898999</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="1">
+        <v>4208787307</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="1">
+        <v>6421916033</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" s="1">
+        <v>6221432605</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="1">
+        <v>4960827407</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" s="1">
+        <v>6012938515</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="1">
+        <v>6688987079</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" s="1">
+        <v>1586394538</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" s="1">
+        <v>2394851328</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" s="1">
+        <v>1646779641</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="1">
+        <v>9263159702</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="1">
+        <v>6176253407</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" s="1">
+        <v>5531888017</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" s="1">
+        <v>5059093542</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" s="1">
+        <v>7267220117</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" s="1">
+        <v>5918178669</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" s="1">
+        <v>9266584037</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" s="1">
+        <v>8311257621</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" s="1">
+        <v>6115748564</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" s="1">
+        <v>9843253832</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" s="1">
+        <v>7068011953</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" s="1">
+        <v>6315340317</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" s="1">
+        <v>9035291261</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" s="1">
+        <v>7015229051</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173" s="1">
+        <v>8368861667</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" s="1">
+        <v>498949875</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175" s="1">
+        <v>6486878095</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176" s="1">
+        <v>6900135580</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" s="1">
+        <v>1774670741</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" s="1">
+        <v>2183571476</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="1">
+        <v>8230278859</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" s="1">
+        <v>7134713712</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" s="1">
+        <v>7534455141</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" s="1">
+        <v>2663300813</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" s="1">
+        <v>8169801393</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" s="1">
+        <v>9365540506</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="1">
+        <v>5518962250</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186" s="1">
+        <v>5252067280</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" s="1">
+        <v>683064370</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" s="1">
+        <v>5207561818</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" s="1">
+        <v>5659265232</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" s="1">
+        <v>1228887400</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="1">
+        <v>5995309951</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" s="1">
+        <v>1123397233</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" s="1">
+        <v>484392490</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" s="1">
+        <v>5747663090</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="1">
+        <v>8015103958</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" s="1">
+        <v>9625763859</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" s="1">
+        <v>3025157794</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" s="1">
+        <v>1785788423</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" s="1">
+        <v>8413041772</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" s="1">
+        <v>1313151505</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B201" s="1">
+        <v>1221553892</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B202" s="1">
+        <v>8427584094</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" s="1">
+        <v>4358410334</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B204" s="1">
+        <v>675560983</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205" s="1">
+        <v>5790487402</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B206" s="1">
+        <v>3541664529</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207" s="1">
+        <v>1249937658</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" s="1">
+        <v>7897716501</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" s="1">
+        <v>3260574490</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210" s="1">
+        <v>6119042197</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B211" s="1">
+        <v>933313569</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B212" s="1">
+        <v>5988395136</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B213" s="1">
+        <v>2881981334</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B214" s="1">
+        <v>3927217617</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B215" s="1">
+        <v>3060256072</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B216" s="1">
+        <v>954325608</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B217" s="1">
+        <v>8157579237</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B218" s="1">
+        <v>2793638106</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B219" s="1">
+        <v>8765129561</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B220" s="1">
+        <v>5413850921</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B221" s="1">
+        <v>3352904857</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B222" s="1">
+        <v>3303032110</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B223" s="1">
+        <v>8187289230</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B224" s="1">
+        <v>2825581249</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B225" s="1">
+        <v>8827179503</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B226" s="1">
+        <v>4015342329</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B227" s="1">
+        <v>4924904498</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B228" s="1">
+        <v>5323017198</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B229" s="1">
+        <v>8329332834</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B230" s="1">
+        <v>201210766</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B231" s="1">
+        <v>8058895732</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B232" s="1">
+        <v>2200231687</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B233" s="1">
+        <v>7287959291</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B234" s="1">
+        <v>3081920247</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B235" s="1">
+        <v>5810071693</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B236" s="1">
+        <v>373043231</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B237" s="1">
+        <v>277130703</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B238" s="1">
+        <v>6319561510</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B239" s="1">
+        <v>9730815171</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B240" s="1">
+        <v>7949800185</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B241" s="1">
+        <v>892808514</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B242" s="1">
+        <v>7361680865</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B243" s="1">
+        <v>7102835561</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B244" s="1">
+        <v>4938323373</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B245" s="1">
+        <v>148789897</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B246" s="1">
+        <v>9195896933</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B247" s="1">
+        <v>1414576346</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B248" s="1">
+        <v>3834278901</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B249" s="1">
+        <v>4073494568</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B250" s="1">
+        <v>9899708456</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B251" s="1">
+        <v>9362006516</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B252" s="1">
+        <v>1973500651</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B253" s="1">
+        <v>8272452258</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B254" s="1">
+        <v>6983550581</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B255" s="1">
+        <v>5073415641</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B256" s="1">
+        <v>7040610552</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B257" s="1">
+        <v>5832785272</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B258" s="1">
+        <v>9763159895</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B259" s="1">
+        <v>4952522308</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B260" s="1">
+        <v>7283754182</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B261" s="1">
+        <v>9689816375</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B262" s="1">
+        <v>4101228546</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B263" s="1">
+        <v>7734491838</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B264" s="1">
+        <v>7971143529</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B265" s="1">
+        <v>1556790231</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B266" s="1">
+        <v>9878444358</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B267" s="1">
+        <v>294983504</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B268" s="1">
+        <v>3525777440</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B269" s="1">
+        <v>4115402868</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B270" s="1">
+        <v>1476498738</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B271" s="1">
+        <v>6280980496</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B272" s="1">
+        <v>8284794074</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B273" s="1">
+        <v>8182214669</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B274" s="1">
+        <v>3813645220</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B275" s="1">
+        <v>1038733145</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B276" s="1">
+        <v>6121918047</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B277" s="1">
+        <v>7411981032</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B278" s="1">
+        <v>5032263361</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B279" s="1">
+        <v>5821939721</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B280" s="1">
+        <v>3209274503</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B281" s="1">
+        <v>2978011474</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B282" s="1">
+        <v>3996762096</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B283" s="1">
+        <v>2303519679</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B284" s="1">
+        <v>2756824630</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B285" s="1">
+        <v>9187684037</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B286" s="1">
+        <v>9622730730</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B287" s="1">
+        <v>7364674012</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B288" s="1">
+        <v>4463450201</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B289" s="1">
+        <v>6937915244</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B290" s="1">
+        <v>1346887034</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B291" s="1">
+        <v>4671812123</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B292" s="1">
+        <v>1110891097</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B293" s="1">
+        <v>7451678393</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B294" s="1">
+        <v>1396375207</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B295" s="1">
+        <v>1706717548</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B296" s="1">
+        <v>1752175310</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B297" s="1">
+        <v>50078649</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B298" s="1">
+        <v>1480899799</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B299" s="1">
+        <v>9606380369</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B300" s="1">
+        <v>4204436918</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B301" s="1">
+        <v>9118635091</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B302" s="1">
+        <v>822689778</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B303" s="1">
+        <v>9305639774</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B304" s="1">
+        <v>3583336104</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B305" s="1">
+        <v>7427157227</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B306" s="1">
+        <v>360989640</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B307" s="1">
+        <v>2903224774</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B308" s="1">
+        <v>5313343521</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B309" s="1">
+        <v>6988414573</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B310" s="1">
+        <v>277702008</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B311" s="1">
+        <v>6450157327</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B312" s="1">
+        <v>9114033158</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B313" s="1">
+        <v>3051025104</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B314" s="1">
+        <v>648956222</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B315" s="1">
+        <v>1747860021</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B316" s="1">
+        <v>3924154066</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B317" s="1">
+        <v>8133105893</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B318" s="1">
+        <v>8984399697</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B319" s="1">
+        <v>7252328338</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B320" s="1">
+        <v>5788135120</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B321" s="1">
+        <v>8655395354</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B322" s="1">
+        <v>8503508435</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B323" s="1">
+        <v>8126022165</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B324" s="1">
+        <v>177383513</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B325" s="1">
+        <v>2194230148</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B326" s="1">
+        <v>6613879443</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B327" s="1">
+        <v>5442775669</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B328" s="1">
+        <v>709867320</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B329" s="1">
+        <v>1535654681</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B330" s="1">
+        <v>5853328769</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B331" s="1">
+        <v>6463210587</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B332" s="1">
+        <v>37346201</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B333" s="1">
+        <v>1653495343</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B334" s="1">
+        <v>7709154007</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B335" s="1">
+        <v>1237733391</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B336" s="1">
+        <v>5888024433</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B337" s="1">
+        <v>6766148165</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B338" s="1">
+        <v>9687191676</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B339" s="1">
+        <v>3712794718</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B340" s="1">
+        <v>2488162048</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B341" s="1">
+        <v>5944499453</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B342" s="1">
+        <v>2174319073</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B343" s="1">
+        <v>8426987748</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B344" s="1">
+        <v>7832193744</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B345" s="1">
+        <v>4351328090</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B346" s="1">
+        <v>3494439853</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B347" s="1">
+        <v>8123898510</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B348" s="1">
+        <v>6181877282</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B349" s="1">
+        <v>3669651380</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B350" s="1">
+        <v>7616031043</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B351" s="1">
+        <v>1589545744</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B352" s="1">
+        <v>6775268891</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B353" s="1">
+        <v>9805029602</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B354" s="1">
+        <v>2926736052</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B355" s="1">
+        <v>1711532668</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B356" s="1">
+        <v>1586946628</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B357" s="1">
+        <v>8168789790</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B358" s="1">
+        <v>5826971751</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B359" s="1">
+        <v>6449961556</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B360" s="1">
+        <v>750795685</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B361" s="1">
+        <v>3707523049</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B362" s="1">
+        <v>8580097744</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B363" s="1">
+        <v>7592322319</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B364" s="1">
+        <v>7304378088</v>
+      </c>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B365" s="1">
+        <v>1274919362</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B366" s="1">
+        <v>720053577</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B367" s="1">
+        <v>4433864459</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B368" s="1">
+        <v>2442425323</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B369" s="1">
+        <v>4023720776</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B370" s="1">
+        <v>1756790857</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B371" s="1">
+        <v>4256588285</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B372" s="1">
+        <v>2767335694</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B373" s="1">
+        <v>4596929561</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B374" s="1">
+        <v>7837269100</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B375" s="1">
+        <v>4563646763</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B376" s="1">
+        <v>9147500558</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B377" s="1">
+        <v>8698156060</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B378" s="1">
+        <v>4786403410</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B379" s="1">
+        <v>436105686</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B380" s="1">
+        <v>7678945102</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B381" s="1">
+        <v>8670774622</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B382" s="1">
+        <v>9656406962</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B383" s="1">
+        <v>9126470824</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B384" s="1">
+        <v>1003617980</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B385" s="1">
+        <v>2989747753</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B386" s="1">
+        <v>9129611498</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B387" s="1">
+        <v>6974825825</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B388" s="1">
+        <v>6193713206</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B389" s="1">
+        <v>8993911348</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B390" s="1">
+        <v>2491439495</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B391" s="1">
+        <v>2167251807</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B392" s="1">
+        <v>5742918448</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B393" s="1">
+        <v>1284673158</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B394" s="1">
+        <v>5426646140</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B395" s="1">
+        <v>4667581151</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B396" s="1">
+        <v>1907634457</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B397" s="1">
+        <v>2656296532</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B398" s="1">
+        <v>1634905650</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B399" s="1">
+        <v>6533266062</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B400" s="1">
+        <v>52056104</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B401" s="1">
+        <v>9402664072</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B402" s="1">
+        <v>6685100213</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B403" s="1">
+        <v>8435087053</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B404" s="1">
+        <v>5630299379</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B405" s="1">
+        <v>3930251183</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B406" s="1">
+        <v>3746719461</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B407" s="1">
+        <v>2825778420</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B408" s="1">
+        <v>6505607244</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B409" s="1">
+        <v>4050662631</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B410" s="1">
+        <v>7555489981</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B411" s="1">
+        <v>2779218297</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B412" s="1">
+        <v>9900642535</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B413" s="1">
+        <v>1978491987</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B414" s="1">
+        <v>9695647448</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B415" s="1">
+        <v>6514988734</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B416" s="1">
+        <v>5775133796</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B417" s="1">
+        <v>5340249804</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B418" s="1">
+        <v>2615610504</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B419" s="1">
+        <v>8708172801</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B420" s="1">
+        <v>1910323228</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B421" s="1">
+        <v>1875626474</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B422" s="1">
+        <v>3705437380</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B423" s="1">
+        <v>5682681266</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B424" s="1">
+        <v>2430205105</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B425" s="1">
+        <v>8013828457</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B426" s="1">
+        <v>2389162213</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B427" s="1">
+        <v>8566893576</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B428" s="1">
+        <v>9577002593</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B429" s="1">
+        <v>376152595</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B430" s="1">
+        <v>3553668521</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B431" s="1">
+        <v>268962588</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B432" s="1">
+        <v>6616712524</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B433" s="1">
+        <v>9270049081</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B434" s="1">
+        <v>17356950</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B435" s="1">
+        <v>6623675256</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B436" s="1">
+        <v>6678645580</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B437" s="1">
+        <v>442286509</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B438" s="1">
+        <v>9938715199</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B439" s="1">
+        <v>8523107388</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B440" s="1">
+        <v>5969311912</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B441" s="1">
+        <v>4680895046</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B442" s="1">
+        <v>8673317313</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B443" s="1">
+        <v>4277336553</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B444" s="1">
+        <v>6095633299</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B445" s="1">
+        <v>6355147179</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B446" s="1">
+        <v>9652237097</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B447" s="1">
+        <v>6956993581</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B448" s="1">
+        <v>8961845346</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B449" s="1">
+        <v>4152175483</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B450" s="1">
+        <v>8523132000</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B451" s="1">
+        <v>8528871086</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B452" s="1">
+        <v>3222708474</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B453" s="1">
+        <v>3444605537</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B454" s="1">
+        <v>2190888091</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B455" s="1">
+        <v>6786598054</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B456" s="1">
+        <v>6764018849</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B457" s="1">
+        <v>4640929124</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B458" s="1">
+        <v>3997766793</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B459" s="1">
+        <v>9454698682</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B460" s="1">
+        <v>6758682435</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B461" s="1">
+        <v>6626492429</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B462" s="1">
+        <v>6622565295</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B463" s="1">
+        <v>7443492133</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B464" s="1">
+        <v>7330545128</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B465" s="1">
+        <v>5601892738</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B466" s="1">
+        <v>4267630293</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B467" s="1">
+        <v>9922294948</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B468" s="1">
+        <v>4634283378</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B469" s="1">
+        <v>3759149176</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B470" s="1">
+        <v>2522861559</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B471" s="1">
+        <v>6268906406</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B472" s="1">
+        <v>6354188447</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B473" s="1">
+        <v>3243251249</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B474" s="1">
+        <v>5068541919</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B475" s="1">
+        <v>2322291750</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B476" s="1">
+        <v>9989801806</v>
+      </c>
+    </row>
+    <row r="477" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B477" s="1">
+        <v>8455086054</v>
+      </c>
+    </row>
+    <row r="478" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B478" s="1">
+        <v>6293256357</v>
+      </c>
+    </row>
+    <row r="479" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B479" s="1">
+        <v>2854892868</v>
+      </c>
+    </row>
+    <row r="480" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B480" s="1">
+        <v>8859942998</v>
+      </c>
+    </row>
+    <row r="481" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B481" s="1">
+        <v>7831306634</v>
+      </c>
+    </row>
+    <row r="482" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B482" s="1">
+        <v>837660520</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B483" s="1">
+        <v>7368794808</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B484" s="1">
+        <v>5724292015</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B485" s="1">
+        <v>140057477</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B486" s="1">
+        <v>5283597896</v>
+      </c>
+    </row>
+    <row r="487" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B487" s="1">
+        <v>901916014</v>
+      </c>
+    </row>
+    <row r="488" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B488" s="1">
+        <v>3479690755</v>
+      </c>
+    </row>
+    <row r="489" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B489" s="1">
+        <v>4942097337</v>
+      </c>
+    </row>
+    <row r="490" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B490" s="1">
+        <v>7053126424</v>
+      </c>
+    </row>
+    <row r="491" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B491" s="1">
+        <v>6035271149</v>
+      </c>
+    </row>
+    <row r="492" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B492" s="1">
+        <v>6598784029</v>
+      </c>
+    </row>
+    <row r="493" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B493" s="1">
+        <v>582629698</v>
+      </c>
+    </row>
+    <row r="494" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B494" s="1">
+        <v>3957012076</v>
+      </c>
+    </row>
+    <row r="495" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B495" s="1">
+        <v>5632855880</v>
+      </c>
+    </row>
+    <row r="496" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B496" s="1">
+        <v>1945677183</v>
+      </c>
+    </row>
+    <row r="497" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B497" s="1">
+        <v>6338359611</v>
+      </c>
+    </row>
+    <row r="498" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B498" s="1">
+        <v>9439192607</v>
+      </c>
+    </row>
+    <row r="499" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B499" s="1">
+        <v>938730868</v>
+      </c>
+    </row>
+    <row r="500" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B500" s="1">
+        <v>3068539860</v>
+      </c>
+    </row>
+    <row r="501" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B501" s="1">
+        <v>5638960599</v>
+      </c>
+    </row>
+    <row r="502" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B502" s="1">
+        <v>1754884117</v>
+      </c>
+    </row>
+    <row r="503" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B503" s="1">
+        <v>256880534</v>
+      </c>
+    </row>
+    <row r="504" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B504" s="1">
+        <v>3756061098</v>
+      </c>
+    </row>
+    <row r="505" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B505" s="1">
+        <v>7953711731</v>
+      </c>
+    </row>
+    <row r="506" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B506" s="1">
+        <v>6914270864</v>
+      </c>
+    </row>
+    <row r="507" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B507" s="1">
+        <v>9701311999</v>
+      </c>
+    </row>
+    <row r="508" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B508" s="1">
+        <v>5935614395</v>
+      </c>
+    </row>
+    <row r="509" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B509" s="1">
+        <v>4550372243</v>
+      </c>
+    </row>
+    <row r="510" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B510" s="1">
+        <v>580306540</v>
+      </c>
+    </row>
+    <row r="511" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B511" s="1">
+        <v>8848177809</v>
+      </c>
+    </row>
+    <row r="512" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B512" s="1">
+        <v>2045421</v>
+      </c>
+    </row>
+    <row r="513" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B513" s="1">
+        <v>6846662885</v>
+      </c>
+    </row>
+    <row r="514" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B514" s="1">
+        <v>2769216076</v>
+      </c>
+    </row>
+    <row r="515" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B515" s="1">
+        <v>55844396</v>
+      </c>
+    </row>
+    <row r="516" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B516" s="1">
+        <v>3684115542</v>
+      </c>
+    </row>
+    <row r="517" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B517" s="1">
+        <v>9240576044</v>
+      </c>
+    </row>
+    <row r="518" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B518" s="1">
+        <v>7559184465</v>
+      </c>
+    </row>
+    <row r="519" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B519" s="1">
+        <v>1049958754</v>
+      </c>
+    </row>
+    <row r="520" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B520" s="1">
+        <v>8602627315</v>
+      </c>
+    </row>
+    <row r="521" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B521" s="1">
+        <v>9598974084</v>
+      </c>
+    </row>
+    <row r="522" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B522" s="1">
+        <v>7208860239</v>
+      </c>
+    </row>
+    <row r="523" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B523" s="1">
+        <v>1379331256</v>
+      </c>
+    </row>
+    <row r="524" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B524" s="1">
+        <v>2061770561</v>
+      </c>
+    </row>
+    <row r="525" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B525" s="1">
+        <v>2261055331</v>
+      </c>
+    </row>
+    <row r="526" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B526" s="1">
+        <v>2572171228</v>
+      </c>
+    </row>
+    <row r="527" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B527" s="1">
+        <v>949314143</v>
+      </c>
+    </row>
+    <row r="528" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B528" s="1">
+        <v>487328239</v>
+      </c>
+    </row>
+    <row r="529" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B529" s="1">
+        <v>8508351583</v>
+      </c>
+    </row>
+    <row r="530" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B530" s="1">
+        <v>7160905314</v>
+      </c>
+    </row>
+    <row r="531" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B531" s="1">
+        <v>2015904260</v>
+      </c>
+    </row>
+    <row r="532" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B532" s="1">
+        <v>5242385053</v>
+      </c>
+    </row>
+    <row r="533" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B533" s="1">
+        <v>2973749888</v>
+      </c>
+    </row>
+    <row r="534" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B534" s="1">
+        <v>973076124</v>
+      </c>
+    </row>
+    <row r="535" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B535" s="1">
+        <v>2863983510</v>
+      </c>
+    </row>
+    <row r="536" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B536" s="1">
+        <v>9625485317</v>
+      </c>
+    </row>
+    <row r="537" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B537" s="1">
+        <v>804696852</v>
+      </c>
+    </row>
+    <row r="538" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B538" s="1">
+        <v>2217859929</v>
+      </c>
+    </row>
+    <row r="539" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B539" s="1">
+        <v>6950625231</v>
+      </c>
+    </row>
+    <row r="540" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B540" s="1">
+        <v>6102210355</v>
+      </c>
+    </row>
+    <row r="541" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B541" s="1">
+        <v>80164490</v>
+      </c>
+    </row>
+    <row r="542" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B542" s="1">
+        <v>9251402151</v>
+      </c>
+    </row>
+    <row r="543" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B543" s="1">
+        <v>6308256424</v>
+      </c>
+    </row>
+    <row r="544" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B544" s="1">
+        <v>5211505172</v>
+      </c>
+    </row>
+    <row r="545" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B545" s="1">
+        <v>3730984495</v>
+      </c>
+    </row>
+    <row r="546" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B546" s="1">
+        <v>512406019</v>
+      </c>
+    </row>
+    <row r="547" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B547" s="1">
+        <v>9370560857</v>
+      </c>
+    </row>
+    <row r="548" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B548" s="1">
+        <v>9102690959</v>
+      </c>
+    </row>
+    <row r="549" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B549" s="1">
+        <v>9114751398</v>
+      </c>
+    </row>
+    <row r="550" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B550" s="1">
+        <v>4344017417</v>
+      </c>
+    </row>
+    <row r="551" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B551" s="1">
+        <v>5095812709</v>
+      </c>
+    </row>
+    <row r="552" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B552" s="1">
+        <v>6788485135</v>
+      </c>
+    </row>
+    <row r="553" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B553" s="1">
+        <v>1472464814</v>
+      </c>
+    </row>
+    <row r="554" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B554" s="1">
+        <v>8666097993</v>
+      </c>
+    </row>
+    <row r="555" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B555" s="1">
+        <v>4140762286</v>
+      </c>
+    </row>
+    <row r="556" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B556" s="1">
+        <v>2389373764</v>
+      </c>
+    </row>
+    <row r="557" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B557" s="1">
+        <v>1303202343</v>
+      </c>
+    </row>
+    <row r="558" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B558" s="1">
+        <v>7520760868</v>
+      </c>
+    </row>
+    <row r="559" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B559" s="1">
+        <v>9439330070</v>
+      </c>
+    </row>
+    <row r="560" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B560" s="1">
+        <v>7237315918</v>
+      </c>
+    </row>
+    <row r="561" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B561" s="1">
+        <v>1838884721</v>
+      </c>
+    </row>
+    <row r="562" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B562" s="1">
+        <v>2670834192</v>
+      </c>
+    </row>
+    <row r="563" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B563" s="1">
+        <v>2113511081</v>
+      </c>
+    </row>
+    <row r="564" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B564" s="1">
+        <v>2445055308</v>
+      </c>
+    </row>
+    <row r="565" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B565" s="1">
+        <v>9072805989</v>
+      </c>
+    </row>
+    <row r="566" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B566" s="1">
+        <v>1153790744</v>
+      </c>
+    </row>
+    <row r="567" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B567" s="1">
+        <v>7214627112</v>
+      </c>
+    </row>
+    <row r="568" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B568" s="1">
+        <v>5858468585</v>
+      </c>
+    </row>
+    <row r="569" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B569" s="1">
+        <v>9721972352</v>
+      </c>
+    </row>
+    <row r="570" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B570" s="1">
+        <v>7965283573</v>
+      </c>
+    </row>
+    <row r="571" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B571" s="1">
+        <v>5979103828</v>
+      </c>
+    </row>
+    <row r="572" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B572" s="1">
+        <v>6156918929</v>
+      </c>
+    </row>
+    <row r="573" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B573" s="1">
+        <v>8842861731</v>
+      </c>
+    </row>
+    <row r="574" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B574" s="1">
+        <v>4975981552</v>
+      </c>
+    </row>
+    <row r="575" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B575" s="1">
+        <v>2673794724</v>
+      </c>
+    </row>
+    <row r="576" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B576" s="1">
+        <v>9374219679</v>
+      </c>
+    </row>
+    <row r="577" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B577" s="1">
+        <v>9462773129</v>
+      </c>
+    </row>
+    <row r="578" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B578" s="1">
+        <v>7126637422</v>
+      </c>
+    </row>
+    <row r="579" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B579" s="1">
+        <v>5641532329</v>
+      </c>
+    </row>
+    <row r="580" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B580" s="1">
+        <v>2979594290</v>
+      </c>
+    </row>
+    <row r="581" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B581" s="1">
+        <v>2531904759</v>
+      </c>
+    </row>
+    <row r="582" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B582" s="1">
+        <v>882854414</v>
+      </c>
+    </row>
+    <row r="583" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B583" s="1">
+        <v>7591490607</v>
+      </c>
+    </row>
+    <row r="584" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B584" s="1">
+        <v>3118603168</v>
+      </c>
+    </row>
+    <row r="585" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B585" s="1">
+        <v>4152604306</v>
+      </c>
+    </row>
+    <row r="586" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B586" s="1">
+        <v>9563528506</v>
+      </c>
+    </row>
+    <row r="587" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B587" s="1">
+        <v>5642255613</v>
+      </c>
+    </row>
+    <row r="588" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B588" s="1">
+        <v>6030143709</v>
+      </c>
+    </row>
+    <row r="589" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B589" s="1">
+        <v>2522842858</v>
+      </c>
+    </row>
+    <row r="590" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B590" s="1">
+        <v>2722039101</v>
+      </c>
+    </row>
+    <row r="591" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B591" s="1">
+        <v>5445992690</v>
+      </c>
+    </row>
+    <row r="592" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B592" s="1">
+        <v>3568895691</v>
+      </c>
+    </row>
+    <row r="593" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B593" s="1">
+        <v>4207878183</v>
+      </c>
+    </row>
+    <row r="594" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B594" s="1">
+        <v>3517251582</v>
+      </c>
+    </row>
+    <row r="595" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B595" s="1">
+        <v>4081533585</v>
+      </c>
+    </row>
+    <row r="596" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B596" s="1">
+        <v>7992441692</v>
+      </c>
+    </row>
+    <row r="597" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B597" s="1">
+        <v>6852012829</v>
+      </c>
+    </row>
+    <row r="598" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B598" s="1">
+        <v>7688785459</v>
+      </c>
+    </row>
+    <row r="599" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B599" s="1">
+        <v>1006187171</v>
+      </c>
+    </row>
+    <row r="600" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B600" s="1">
+        <v>779360344</v>
+      </c>
+    </row>
+    <row r="601" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B601" s="1">
+        <v>9659803864</v>
       </c>
     </row>
   </sheetData>
